--- a/ba_project/User stories template.xlsx
+++ b/ba_project/User stories template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\navin\ba_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\navin\navin-projects\ba_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9138C6-05E0-4D3B-910C-45BFECB93A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6168399-7580-4290-8AC5-277ABE6BA320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>AGILE USER STORY TEMPLATE</t>
   </si>
@@ -156,9 +156,6 @@
     <t>As a warehouse team member</t>
   </si>
   <si>
-    <t>receive products partially or completely</t>
-  </si>
-  <si>
     <t>inspect the products</t>
   </si>
   <si>
@@ -168,15 +165,6 @@
     <t>As an accounts team member</t>
   </si>
   <si>
-    <t xml:space="preserve">do 3 way matching </t>
-  </si>
-  <si>
-    <t>receive PO, Invoice and goods receipt notes</t>
-  </si>
-  <si>
-    <t>do 3 way matching</t>
-  </si>
-  <si>
     <t>send the payment to vendor if everything matches and hold the payment if everything is not matched</t>
   </si>
   <si>
@@ -184,6 +172,9 @@
   </si>
   <si>
     <t xml:space="preserve">generate invoice </t>
+  </si>
+  <si>
+    <t>receive PO, Invoice, goods receipt notes and do 3 way matching</t>
   </si>
 </sst>
 </file>
@@ -615,8 +606,8 @@
   </sheetPr>
   <dimension ref="A4:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -901,7 +892,7 @@
         <v>21</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>35</v>
@@ -981,7 +972,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>36</v>
@@ -1030,7 +1021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1">
+    <row r="22" spans="2:7" ht="30" customHeight="1">
       <c r="B22" s="6">
         <v>14</v>
       </c>
@@ -1058,62 +1049,36 @@
         <v>9</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B24" s="6">
-        <v>16</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>12</v>
-      </c>
+    <row r="24" spans="2:7" ht="31.2" customHeight="1">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="2:7" ht="31.2" customHeight="1">
-      <c r="B25" s="6">
-        <v>17</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B26" s="6">
-        <v>18</v>
-      </c>
+      <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -1121,9 +1086,7 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B27" s="6">
-        <v>19</v>
-      </c>
+      <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -1131,9 +1094,7 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B28" s="6">
-        <v>20</v>
-      </c>
+      <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1141,9 +1102,7 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B29" s="6">
-        <v>21</v>
-      </c>
+      <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1151,9 +1110,7 @@
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B30" s="6">
-        <v>22</v>
-      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -1161,9 +1118,7 @@
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B31" s="6">
-        <v>23</v>
-      </c>
+      <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -1171,9 +1126,7 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B32" s="6">
-        <v>24</v>
-      </c>
+      <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -1181,9 +1134,7 @@
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="6">
-        <v>25</v>
-      </c>
+      <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -1191,9 +1142,7 @@
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="6">
-        <v>26</v>
-      </c>
+      <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -1201,9 +1150,7 @@
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="6">
-        <v>27</v>
-      </c>
+      <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -1211,9 +1158,7 @@
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="6">
-        <v>28</v>
-      </c>
+      <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -1221,9 +1166,7 @@
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="6">
-        <v>29</v>
-      </c>
+      <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -1231,9 +1174,7 @@
       <c r="G37" s="6"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="6">
-        <v>30</v>
-      </c>
+      <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -1241,9 +1182,7 @@
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="6">
-        <v>31</v>
-      </c>
+      <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -1251,9 +1190,7 @@
       <c r="G39" s="6"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="6">
-        <v>32</v>
-      </c>
+      <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -1261,9 +1198,7 @@
       <c r="G40" s="6"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="6">
-        <v>33</v>
-      </c>
+      <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -1271,9 +1206,7 @@
       <c r="G41" s="6"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="6">
-        <v>34</v>
-      </c>
+      <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -1281,9 +1214,7 @@
       <c r="G42" s="6"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="6">
-        <v>35</v>
-      </c>
+      <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -1291,9 +1222,7 @@
       <c r="G43" s="6"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="6">
-        <v>36</v>
-      </c>
+      <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -1301,9 +1230,7 @@
       <c r="G44" s="6"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="6">
-        <v>37</v>
-      </c>
+      <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -1311,9 +1238,7 @@
       <c r="G45" s="6"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="6">
-        <v>38</v>
-      </c>
+      <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -1321,9 +1246,7 @@
       <c r="G46" s="6"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="6">
-        <v>39</v>
-      </c>
+      <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
